--- a/results/scale2downlogdet.xlsx
+++ b/results/scale2downlogdet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="19">
   <si>
     <t xml:space="preserve">RF Dist with </t>
   </si>
@@ -71,18 +71,15 @@
   <si>
     <t>Sequence 10</t>
   </si>
+  <si>
+    <t>Lasso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,346 +87,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -437,306 +104,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1025,16 +403,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1042,7 +420,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13">
+    <row r="1" spans="2:13">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1075,6 +453,9 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="2:13">
       <c r="C3">
         <v>36</v>
       </c>
@@ -1101,6 +482,9 @@
       <c r="F3">
         <v>32</v>
       </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
       <c r="I3">
         <v>24</v>
       </c>
@@ -1111,7 +495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="2:13">
       <c r="C4">
         <v>100</v>
       </c>
@@ -1124,6 +508,9 @@
       <c r="F4">
         <v>38</v>
       </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
       <c r="I4">
         <v>28</v>
       </c>
@@ -1134,7 +521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="2:13">
       <c r="C5">
         <v>225</v>
       </c>
@@ -1147,6 +534,9 @@
       <c r="F5">
         <v>46</v>
       </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
       <c r="I5">
         <v>46</v>
       </c>
@@ -1157,7 +547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="2:13">
       <c r="C6">
         <v>342</v>
       </c>
@@ -1174,7 +564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="4:13">
+    <row r="8" spans="2:13">
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="2:13">
       <c r="C10">
         <v>36</v>
       </c>
@@ -1233,6 +623,9 @@
       <c r="F10">
         <v>26</v>
       </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
       <c r="I10">
         <v>20</v>
       </c>
@@ -1243,7 +636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" spans="2:13">
       <c r="C11">
         <v>100</v>
       </c>
@@ -1256,6 +649,9 @@
       <c r="F11">
         <v>38</v>
       </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
       <c r="I11">
         <v>30</v>
       </c>
@@ -1266,7 +662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="2:13">
       <c r="C12">
         <v>225</v>
       </c>
@@ -1279,6 +675,9 @@
       <c r="F12">
         <v>50</v>
       </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
       <c r="I12">
         <v>46</v>
       </c>
@@ -1289,7 +688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="2:13">
       <c r="C13">
         <v>342</v>
       </c>
@@ -1306,7 +705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="4:13">
+    <row r="15" spans="2:13">
       <c r="D15" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="2:13">
       <c r="C17">
         <v>36</v>
       </c>
@@ -1365,6 +764,9 @@
       <c r="F17">
         <v>38</v>
       </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
       <c r="I17">
         <v>28</v>
       </c>
@@ -1375,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="2:13">
       <c r="C18">
         <v>100</v>
       </c>
@@ -1388,6 +790,9 @@
       <c r="F18">
         <v>40</v>
       </c>
+      <c r="G18">
+        <v>52</v>
+      </c>
       <c r="I18">
         <v>44</v>
       </c>
@@ -1398,7 +803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="2:13">
       <c r="C19">
         <v>225</v>
       </c>
@@ -1411,6 +816,9 @@
       <c r="F19">
         <v>48</v>
       </c>
+      <c r="G19">
+        <v>54</v>
+      </c>
       <c r="I19">
         <v>50</v>
       </c>
@@ -1421,7 +829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="2:13">
       <c r="C20">
         <v>342</v>
       </c>
@@ -1438,7 +846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="2:13">
       <c r="D22" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="2:13">
       <c r="C24">
         <v>36</v>
       </c>
@@ -1497,6 +905,9 @@
       <c r="F24">
         <v>26</v>
       </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
       <c r="I24">
         <v>28</v>
       </c>
@@ -1507,7 +918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="2:13">
       <c r="C25">
         <v>100</v>
       </c>
@@ -1520,6 +931,9 @@
       <c r="F25">
         <v>40</v>
       </c>
+      <c r="G25">
+        <v>52</v>
+      </c>
       <c r="I25">
         <v>30</v>
       </c>
@@ -1530,7 +944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="2:13">
       <c r="C26">
         <v>225</v>
       </c>
@@ -1543,6 +957,9 @@
       <c r="F26">
         <v>54</v>
       </c>
+      <c r="G26">
+        <v>56</v>
+      </c>
       <c r="I26">
         <v>52</v>
       </c>
@@ -1553,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="2:13">
       <c r="C27">
         <v>342</v>
       </c>
@@ -1570,7 +987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="4:13">
+    <row r="29" spans="2:13">
       <c r="D29" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="2:13">
       <c r="C31">
         <v>36</v>
       </c>
@@ -1629,6 +1046,9 @@
       <c r="F31">
         <v>30</v>
       </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
       <c r="I31">
         <v>22</v>
       </c>
@@ -1639,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="2:13">
       <c r="C32">
         <v>100</v>
       </c>
@@ -1652,6 +1072,9 @@
       <c r="F32">
         <v>30</v>
       </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
       <c r="I32">
         <v>24</v>
       </c>
@@ -1662,7 +1085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="2:13">
       <c r="C33">
         <v>225</v>
       </c>
@@ -1675,6 +1098,9 @@
       <c r="F33">
         <v>36</v>
       </c>
+      <c r="G33">
+        <v>46</v>
+      </c>
       <c r="I33">
         <v>38</v>
       </c>
@@ -1685,7 +1111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="2:13">
       <c r="C34">
         <v>342</v>
       </c>
@@ -1702,7 +1128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="2:13">
       <c r="D36" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" spans="2:13">
       <c r="C38">
         <v>36</v>
       </c>
@@ -1761,6 +1187,9 @@
       <c r="F38">
         <v>20</v>
       </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
       <c r="I38">
         <v>26</v>
       </c>
@@ -1771,7 +1200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="2:13">
       <c r="C39">
         <v>100</v>
       </c>
@@ -1784,6 +1213,9 @@
       <c r="F39">
         <v>30</v>
       </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
       <c r="I39">
         <v>30</v>
       </c>
@@ -1794,7 +1226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" spans="2:13">
       <c r="C40">
         <v>225</v>
       </c>
@@ -1807,6 +1239,9 @@
       <c r="F40">
         <v>48</v>
       </c>
+      <c r="G40">
+        <v>48</v>
+      </c>
       <c r="I40">
         <v>46</v>
       </c>
@@ -1817,7 +1252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" spans="2:13">
       <c r="C41">
         <v>342</v>
       </c>
@@ -1834,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="4:13">
+    <row r="43" spans="2:13">
       <c r="D43" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="2:13">
       <c r="C45">
         <v>36</v>
       </c>
@@ -1893,6 +1328,9 @@
       <c r="F45">
         <v>20</v>
       </c>
+      <c r="G45">
+        <v>46</v>
+      </c>
       <c r="I45">
         <v>18</v>
       </c>
@@ -1903,7 +1341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="2:13">
       <c r="C46">
         <v>100</v>
       </c>
@@ -1916,6 +1354,9 @@
       <c r="F46">
         <v>24</v>
       </c>
+      <c r="G46">
+        <v>48</v>
+      </c>
       <c r="I46">
         <v>24</v>
       </c>
@@ -1926,7 +1367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="2:13">
       <c r="C47">
         <v>225</v>
       </c>
@@ -1939,6 +1380,9 @@
       <c r="F47">
         <v>54</v>
       </c>
+      <c r="G47">
+        <v>52</v>
+      </c>
       <c r="I47">
         <v>44</v>
       </c>
@@ -1949,7 +1393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="2:13">
       <c r="C48">
         <v>342</v>
       </c>
@@ -1966,7 +1410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="4:13">
+    <row r="50" spans="2:13">
       <c r="D50" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +1456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="2:13">
       <c r="C52">
         <v>36</v>
       </c>
@@ -2025,6 +1469,9 @@
       <c r="F52">
         <v>36</v>
       </c>
+      <c r="G52">
+        <v>46</v>
+      </c>
       <c r="I52">
         <v>26</v>
       </c>
@@ -2035,7 +1482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="2:13">
       <c r="C53">
         <v>100</v>
       </c>
@@ -2048,6 +1495,9 @@
       <c r="F53">
         <v>34</v>
       </c>
+      <c r="G53">
+        <v>46</v>
+      </c>
       <c r="I53">
         <v>28</v>
       </c>
@@ -2058,7 +1508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="2:13">
       <c r="C54">
         <v>225</v>
       </c>
@@ -2071,6 +1521,9 @@
       <c r="F54">
         <v>46</v>
       </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
       <c r="I54">
         <v>48</v>
       </c>
@@ -2081,7 +1534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="2:13">
       <c r="C55">
         <v>342</v>
       </c>
@@ -2098,7 +1551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="4:13">
+    <row r="57" spans="2:13">
       <c r="D57" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="2:13">
       <c r="C59">
         <v>36</v>
       </c>
@@ -2157,6 +1610,9 @@
       <c r="F59">
         <v>28</v>
       </c>
+      <c r="G59">
+        <v>56</v>
+      </c>
       <c r="I59">
         <v>30</v>
       </c>
@@ -2167,7 +1623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" spans="2:13">
       <c r="C60">
         <v>100</v>
       </c>
@@ -2180,6 +1636,9 @@
       <c r="F60">
         <v>40</v>
       </c>
+      <c r="G60">
+        <v>54</v>
+      </c>
       <c r="I60">
         <v>38</v>
       </c>
@@ -2190,7 +1649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" spans="2:13">
       <c r="C61">
         <v>225</v>
       </c>
@@ -2203,6 +1662,9 @@
       <c r="F61">
         <v>48</v>
       </c>
+      <c r="G61">
+        <v>56</v>
+      </c>
       <c r="I61">
         <v>44</v>
       </c>
@@ -2213,7 +1675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="3:11">
+    <row r="62" spans="2:13">
       <c r="C62">
         <v>342</v>
       </c>
@@ -2230,7 +1692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="4:13">
+    <row r="64" spans="2:13">
       <c r="D64" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" spans="2:13">
       <c r="C66">
         <v>36</v>
       </c>
@@ -2289,6 +1751,9 @@
       <c r="F66">
         <v>28</v>
       </c>
+      <c r="G66">
+        <v>48</v>
+      </c>
       <c r="I66">
         <v>24</v>
       </c>
@@ -2299,7 +1764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" spans="2:13">
       <c r="C67">
         <v>100</v>
       </c>
@@ -2312,6 +1777,9 @@
       <c r="F67">
         <v>36</v>
       </c>
+      <c r="G67">
+        <v>48</v>
+      </c>
       <c r="I67">
         <v>34</v>
       </c>
@@ -2322,7 +1790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="2:13">
       <c r="C68">
         <v>225</v>
       </c>
@@ -2335,6 +1803,9 @@
       <c r="F68">
         <v>48</v>
       </c>
+      <c r="G68">
+        <v>52</v>
+      </c>
       <c r="I68">
         <v>48</v>
       </c>
@@ -2345,7 +1816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" spans="2:13">
       <c r="C69">
         <v>342</v>
       </c>
@@ -2364,38 +1835,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>